--- a/Crawler/yahoostock.xlsx
+++ b/Crawler/yahoostock.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>矽力-KY</t>
+          <t>大立光</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6415.TW</t>
+          <t>3008.TW</t>
         </is>
       </c>
     </row>
@@ -460,60 +460,60 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大立光</t>
+          <t>旭隼</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3008.TW</t>
+          <t>6409.TW</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>旭隼</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6409.TW</t>
+          <t>3529.TWO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>譜瑞-KY</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4966.TWO</t>
+          <t>3661.TW</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>AES-KY</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5269.TW</t>
+          <t>6781.TW</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3529.TWO</t>
+          <t>5269.TW</t>
         </is>
       </c>
     </row>
@@ -532,972 +532,972 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AES-KY</t>
+          <t>譜瑞-KY</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6781.TW</t>
+          <t>4966.TWO</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>富邦媒</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8454.TW</t>
+          <t>6669.TW</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>嘉澤</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6669.TW</t>
+          <t>3533.TW</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>鈊象</t>
+          <t>富邦媒</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3293.TWO</t>
+          <t>8454.TW</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>嘉澤</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3533.TW</t>
+          <t>2454.TW</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>和泰車</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3661.TW</t>
+          <t>2207.TW</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>藥華藥</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2454.TW</t>
+          <t>6446.TWO</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>和泰車</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2207.TW</t>
+          <t>3443.TW</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>矽力*-KY</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3443.TW</t>
+          <t>6415.TW</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>藥華藥</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6446.TWO</t>
+          <t>2330.TW</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>綠界科技</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2330.TW</t>
+          <t>6763.TWO</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>力智</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6719.TW</t>
+          <t>6488.TWO</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>儒鴻</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6488.TWO</t>
+          <t>1476.TW</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>儒鴻</t>
+          <t>川湖</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1476.TW</t>
+          <t>2059.TW</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>綠界科技</t>
+          <t>寶雅</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6763.TWO</t>
+          <t>5904.TWO</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>晶碩</t>
+          <t>精測</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6491.TW</t>
+          <t>6510.TWO</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>精測</t>
+          <t>玉晶光</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6510.TWO</t>
+          <t>3406.TW</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>川湖</t>
+          <t>晶碩</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2059.TW</t>
+          <t>6491.TW</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>穎崴</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6515.TW</t>
+          <t>6533.TW</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>穎崴</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2379.TW</t>
+          <t>6515.TW</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>瑞鼎</t>
+          <t>健策</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3592.TW</t>
+          <t>3653.TW</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>健策</t>
+          <t>上品</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3653.TW</t>
+          <t>4770.TW</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>玉晶光</t>
+          <t>M31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3406.TW</t>
+          <t>6643.TWO</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>研華</t>
+          <t>鈊象</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2395.TW</t>
+          <t>3293.TWO</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>國巨</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2327.TW</t>
+          <t>2379.TW</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>華碩</t>
+          <t>金麗科</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2357.TW</t>
+          <t>3228.TWO</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>億豐</t>
+          <t>貿聯-KY</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8464.TW</t>
+          <t>3665.TW</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>大學光</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3034.TW</t>
+          <t>3218.TWO</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>貿聯-KY</t>
+          <t>研華</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3665.TW</t>
+          <t>2395.TW</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>寶雅</t>
+          <t>國巨</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5904.TWO</t>
+          <t>2327.TW</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>大樹</t>
+          <t>采鈺</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6469.TWO</t>
+          <t>6789.TW</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>金麗科</t>
+          <t>大樹</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3228.TWO</t>
+          <t>6469.TWO</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>南電</t>
+          <t>保瑞</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8046.TW</t>
+          <t>6472.TWO</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>是方</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6561.TWO</t>
+          <t>8299.TWO</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>鮮活果汁-KY</t>
+          <t>東哥遊艇</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1256.TW</t>
+          <t>8478.TW</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>是方</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8299.TWO</t>
+          <t>6561.TWO</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>大學光</t>
+          <t>信邦</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3218.TWO</t>
+          <t>3023.TW</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>昇佳電子</t>
+          <t>統一超</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6732.TWO</t>
+          <t>2912.TW</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>威鋒電子</t>
+          <t>新普</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6756.TW</t>
+          <t>6121.TWO</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>統一超</t>
+          <t>合一</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2912.TW</t>
+          <t>4743.TWO</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>弘塑</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6533.TW</t>
+          <t>3131.TWO</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>新普</t>
+          <t>億豐</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6121.TWO</t>
+          <t>8464.TW</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>美利達</t>
+          <t>家登</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>9914.TW</t>
+          <t>3680.TWO</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>德麥</t>
+          <t>崑鼎</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1264.TWO</t>
+          <t>6803.TWO</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>上品</t>
+          <t>力智</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4770.TW</t>
+          <t>6719.TW</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>精華</t>
+          <t>德麥</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1565.TWO</t>
+          <t>1264.TWO</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>德微</t>
+          <t>精華</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3675.TWO</t>
+          <t>1565.TWO</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>信邦</t>
+          <t>智邦</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3023.TW</t>
+          <t>2345.TW</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>M31</t>
+          <t>昇佳電子</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6643.TWO</t>
+          <t>6732.TWO</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>巨大</t>
+          <t>華碩</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>9921.TW</t>
+          <t>2357.TW</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>上銀</t>
+          <t>長聖</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2049.TW</t>
+          <t>6712.TWO</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>崑鼎</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6803.TWO</t>
+          <t>2308.TW</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>智邦</t>
+          <t>瑞鼎</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2345.TW</t>
+          <t>3592.TW</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>保瑞</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6472.TWO</t>
+          <t>3034.TW</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>裕日車</t>
+          <t>南電</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2227.TW</t>
+          <t>8046.TW</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>元太</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2308.TW</t>
+          <t>8069.TWO</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>弘塑</t>
+          <t>威鋒電子</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3131.TWO</t>
+          <t>6756.TW</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>尚凡</t>
+          <t>巨大</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5278.TWO</t>
+          <t>9921.TW</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>鈺太</t>
+          <t>耕興</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6679.TWO</t>
+          <t>6146.TWO</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>亨泰光</t>
+          <t>雍智科技</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6747.TWO</t>
+          <t>6683.TWO</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>愛普*</t>
+          <t>德微</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6531.TW</t>
+          <t>3675.TWO</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>台灣精銳</t>
+          <t>鈺太</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4583.TW</t>
+          <t>6679.TWO</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>瓦城</t>
+          <t>神準</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2729.TWO</t>
+          <t>3558.TWO</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>家登</t>
+          <t>北極星藥業-KY</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3680.TWO</t>
+          <t>6550.TW</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>雍智科技</t>
+          <t>鮮活果汁-KY</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6683.TWO</t>
+          <t>1256.TW</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>裕融</t>
+          <t>樺漢</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9941.TW</t>
+          <t>6414.TW</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>中租-KY</t>
+          <t>泰博</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5871.TW</t>
+          <t>4736.TWO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>同欣電</t>
+          <t>美利達</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6271.TW</t>
+          <t>9914.TW</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>樺漢</t>
+          <t>聖暉</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6414.TW</t>
+          <t>5536.TWO</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>達亞</t>
+          <t>台灣精銳</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6762.TWO</t>
+          <t>4583.TW</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>汎德永業</t>
+          <t>亨泰光</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2247.TW</t>
+          <t>6747.TWO</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>勝一</t>
+          <t>裕日車</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1773.TW</t>
+          <t>2227.TW</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>高端疫苗</t>
+          <t>全家</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6547.TWO</t>
+          <t>5903.TWO</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>元太</t>
+          <t>汎德永業</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8069.TWO</t>
+          <t>2247.TW</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>矽創</t>
+          <t>豆府</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8016.TW</t>
+          <t>2752.TWO</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>泰博</t>
+          <t>尚凡</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4736.TWO</t>
+          <t>5278.TWO</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>同欣電</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3105.TWO</t>
+          <t>6271.TW</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>日友</t>
+          <t>京鼎</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8341.TW</t>
+          <t>3413.TW</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>數字</t>
+          <t>上銀</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>5287.TWO</t>
+          <t>2049.TW</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>復盛應用</t>
+          <t>一零四</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>6670.TW</t>
+          <t>3130.TW</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>豐泰</t>
+          <t>數字</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>9910.TW</t>
+          <t>5287.TWO</t>
         </is>
       </c>
     </row>
@@ -1516,120 +1516,120 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>一零四</t>
+          <t>鼎翰</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3130.TW</t>
+          <t>3611.TWO</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>合一</t>
+          <t>復盛應用</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4743.TWO</t>
+          <t>6670.TW</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>東哥遊艇</t>
+          <t>瓦城</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>8478.TW</t>
+          <t>2729.TWO</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>台光電</t>
+          <t>中租-KY</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2383.TW</t>
+          <t>5871.TW</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>麗豐-KY</t>
+          <t>愛普*</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4137.TW</t>
+          <t>6531.TW</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>聖暉</t>
+          <t>鈺齊-KY</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5536.TWO</t>
+          <t>9802.TW</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>台勝科</t>
+          <t>聚陽</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3532.TW</t>
+          <t>1477.TW</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>全家</t>
+          <t>晶呈科技</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5903.TWO</t>
+          <t>4768.TWO</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>朋程</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3035.TW</t>
+          <t>8255.TWO</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>京鼎</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3413.TW</t>
+          <t>3035.TW</t>
         </is>
       </c>
     </row>
